--- a/resdataTemp8.xlsx
+++ b/resdataTemp8.xlsx
@@ -1,41 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="electric" sheetId="1" r:id="rId1"/>
-    <sheet name="Heatex" sheetId="2" r:id="rId2"/>
+    <sheet name="gas_streams_zaryad" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="water_streams_zaryad" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="syngas_streams_zaryad" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="electric_zaryad" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="heaters_zaryad" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="accumulation_zaryad" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="gas_streams_razryad" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="water_streams_razryad" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="syngas_streams_razryad" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="electric_razryad" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="heaters_razryad" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="accumulation_razryad" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -50,35 +57,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -366,71 +431,4849 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>3111</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>O2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CO2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>H2O</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AIR</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>GTU-KU</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>538.5052037118</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>954.4969526878768</v>
+      </c>
+      <c r="E3" t="n">
+        <v>449.9446003255802</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.7803</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1237</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0301</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0594</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0065</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>REF-SMESH</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>800</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1531.123730073688</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9.688875327206452</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.710320591016015</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.00996710270335893</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.090538556815177</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.180531273012258</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.008642476453191781</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>GTU-PEVD</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>544.633475582132</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>966.651996331044</v>
+      </c>
+      <c r="E5" t="n">
+        <v>459.6334756527866</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.7787899812371755</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1212458665432909</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.03140414583538195</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.06201377593307756</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.006546230451074111</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>PEVD-IVD</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>468.0390591181901</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>878.9664009195801</v>
+      </c>
+      <c r="E6" t="n">
+        <v>459.6334756527866</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.7787899812371755</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1212458665432909</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.03140414583538195</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.06201377593307756</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.006546230451074111</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>IVD-EVD</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>295.3998318971054</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>687.0185138601988</v>
+      </c>
+      <c r="E7" t="n">
+        <v>459.6334756527866</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.7787899812371755</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1212458665432909</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.03140414583538195</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.06201377593307756</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.006546230451074111</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>EVD-PPND</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>226.0575937342382</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>612.0408758587382</v>
+      </c>
+      <c r="E8" t="n">
+        <v>459.6334756527866</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.7787899812371755</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.1212458665432909</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.03140414583538195</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.06201377593307756</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.006546230451074111</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>PPND-IND</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>225.1373684769874</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>611.053203730324</v>
+      </c>
+      <c r="E9" t="n">
+        <v>459.6334756527866</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.7787899812371755</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.1212458665432909</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.03140414583538195</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.06201377593307756</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.006546230451074111</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>IND-GPK</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>165.1186005696091</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>547.0077381237011</v>
+      </c>
+      <c r="E10" t="n">
+        <v>459.6334756527866</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.7787899812371755</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.1212458665432909</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.03140414583538195</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.06201377593307756</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.006546230451074111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>GPK-out</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>97.10885009314885</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>475.1975274038946</v>
+      </c>
+      <c r="E11" t="n">
+        <v>459.6334756527866</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.7787899812371755</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.1212458665432909</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.03140414583538195</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.06201377593307756</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.006546230451074111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>AIR-REF</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>15</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>288.39</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9.184172541171973</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>CH4-REF</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>15</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D13" t="n">
+        <v>881.5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5047027860344852</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Ni</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>KPDm</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>KPD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6510747146776791</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6826413205133111</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9537581378579669</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8074</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>CVD</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>CND</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>GTU</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>157.0758</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>33.7011913199319</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>DK</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>6.283167240450677</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Turbine</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>71.54941325913617</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Tots1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>33.56390357732528</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>0.8493429460243179</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Tots2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8.999079286719075</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0.8372138111260947</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Tots3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.26801436201299</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>0.8149525354268464</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Tots4</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>23.71841603307882</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>0.8587704108718714</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>KN</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1749442778822577</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1813816293643654</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9645093524373625</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.2904791025081011</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>SGgtu_comp</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>47757.63806458595</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>SGgtu_turb</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>71596.30902227727</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Qw</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Qg</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>KPD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>PEVD</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>42402.22615356315</v>
+      </c>
+      <c r="C2" t="n">
+        <v>42830.5314682456</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>IVD</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>91224.568377994</v>
+      </c>
+      <c r="C3" t="n">
+        <v>92146.02866464041</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>EVD</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>39266.76064787068</v>
+      </c>
+      <c r="C4" t="n">
+        <v>39663.39459380877</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>PPND</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>503.2394700055349</v>
+      </c>
+      <c r="C5" t="n">
+        <v>508.3226969752878</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>31965.27116203582</v>
+      </c>
+      <c r="C6" t="n">
+        <v>32288.15268892507</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>GPK</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>37607.45802898758</v>
+      </c>
+      <c r="C7" t="n">
+        <v>37987.3313424117</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>SP2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>SP1</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>OD</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Strans</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Strans_cool</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Reformer</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Ref_cooler</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Ref_HTS</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>HTS_cooler</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15029.34185080636</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Ref_all</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>SGgtu_Qsw</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>37502.28633878332</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Qw</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>ASW</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>PKM</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>95819554.475325</v>
+      </c>
+      <c r="C3" t="n">
+        <v>118.5971149612587</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AIR</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>PEVD-DROSVD</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>517.6824157331961</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.81271470340575</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3456.191018373008</v>
+      </c>
+      <c r="E3" t="n">
+        <v>58.18355741545645</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>IVD-PEVD</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>287.4718859947776</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7.171555131742401</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2770.371236091587</v>
+      </c>
+      <c r="E4" t="n">
+        <v>58.18355741545645</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>EVD-IVD</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>286.1347134672716</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7.171555131742401</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1269.18722253498</v>
+      </c>
+      <c r="E5" t="n">
+        <v>58.18355741545645</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>PEN-EVD</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>160.7992349304796</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7.171555131742401</v>
+      </c>
+      <c r="D6" t="n">
+        <v>682.7741086999849</v>
+      </c>
+      <c r="E6" t="n">
+        <v>58.18355741545645</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>BND-PEN</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>154.446239678286</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5356881851134325</v>
+      </c>
+      <c r="D7" t="n">
+        <v>651.3925995325698</v>
+      </c>
+      <c r="E7" t="n">
+        <v>58.18355741545645</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>PPND-DROSND</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>168.5961637599758</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5293324291003461</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2784.852843918709</v>
+      </c>
+      <c r="E8" t="n">
+        <v>13.34311839466289</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>IND-PPND</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>154.446239562787</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5356881851134325</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2751.17027247606</v>
+      </c>
+      <c r="E9" t="n">
+        <v>13.34311839466289</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>GPK-IND</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>150.8013930969336</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5356881851134325</v>
+      </c>
+      <c r="D10" t="n">
+        <v>635.6685274726505</v>
+      </c>
+      <c r="E10" t="n">
+        <v>71.52667581011933</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>GPK-REC</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>150.8013930969336</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5356881851134325</v>
+      </c>
+      <c r="D11" t="n">
+        <v>635.6685274726505</v>
+      </c>
+      <c r="E11" t="n">
+        <v>85.08236331895654</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>REC-GPK</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5356881851134325</v>
+      </c>
+      <c r="D12" t="n">
+        <v>251.6134483699585</v>
+      </c>
+      <c r="E12" t="n">
+        <v>85.09138648484219</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>SMESH-GPK</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>42.54608875577884</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6964</v>
+      </c>
+      <c r="D13" t="n">
+        <v>178.781378472451</v>
+      </c>
+      <c r="E13" t="n">
+        <v>71.52686766217477</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>SMESHOD-REC</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>41.95420827898033</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6964</v>
+      </c>
+      <c r="D14" t="n">
+        <v>176.3083597934076</v>
+      </c>
+      <c r="E14" t="n">
+        <v>63.01045897524769</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>SP1-OD</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>68.48027385770553</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.02920639028145948</v>
+      </c>
+      <c r="D15" t="n">
+        <v>286.6962368586081</v>
+      </c>
+      <c r="E15" t="n">
+        <v>58.58998849041154</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>OD-GPK</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>43.18815949347157</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.02919243641332626</v>
+      </c>
+      <c r="D16" t="n">
+        <v>180.8781507171376</v>
+      </c>
+      <c r="E16" t="n">
+        <v>58.57654527798974</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>SWIN-TURB</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>36.90321777</v>
+      </c>
+      <c r="C17" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="D17" t="n">
+        <v>192.602</v>
+      </c>
+      <c r="E17" t="n">
+        <v>625.0228031558984</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>SWIN-OD</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>36.90321777</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>192.602</v>
+      </c>
+      <c r="E18" t="n">
+        <v>78.73469359179686</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>OD-SP1</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>55.50958565422067</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>232.418635134222</v>
+      </c>
+      <c r="E19" t="n">
+        <v>78.73469359179686</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>OTB2-SP2</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>97.56164706084434</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.09289740789141519</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2643.680175888252</v>
+      </c>
+      <c r="E20" t="n">
+        <v>27.80819297080961</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>SP2-SP1</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>96.14973739202742</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.08825253749684443</v>
+      </c>
+      <c r="D21" t="n">
+        <v>402.9330643650975</v>
+      </c>
+      <c r="E21" t="n">
+        <v>27.80819297080961</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>SP1-SP2</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>66.42769861493919</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>278.1327741007504</v>
+      </c>
+      <c r="E22" t="n">
+        <v>625.0228031558984</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>SP2-WOUT</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>90</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>376.83</v>
+      </c>
+      <c r="E23" t="n">
+        <v>625.0228031558984</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>WIN-SP1</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>39.24707893286219</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>202.3831279625776</v>
+      </c>
+      <c r="E24" t="n">
+        <v>625.0228031558984</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>OTB1-SP1</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>69.65893790015485</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.03074356871732577</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2516.668078111979</v>
+      </c>
+      <c r="E25" t="n">
+        <v>30.76958458001959</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>DROSVD-TURBVD</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>514.935326279742</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6.215167522940601</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3456.191018373008</v>
+      </c>
+      <c r="E26" t="n">
+        <v>49.66732157512825</v>
+      </c>
+      <c r="F26" t="n">
+        <v>6.909483675721813</v>
+      </c>
+      <c r="G26" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>ENDOFVD</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>195.8799765457268</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.4007104570544854</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2852.237349700137</v>
+      </c>
+      <c r="E27" t="n">
+        <v>49.66732157512825</v>
+      </c>
+      <c r="F27" t="n">
+        <v>7.153052703057659</v>
+      </c>
+      <c r="G27" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>DROSND-TURBND</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>166.0681115208579</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.451378444430769</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2784.852843918709</v>
+      </c>
+      <c r="E28" t="n">
+        <v>13.34311839466289</v>
+      </c>
+      <c r="F28" t="n">
+        <v>6.951109920752034</v>
+      </c>
+      <c r="G28" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>SMESHEND</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>189.1185377858068</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.4007104570544854</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2837.967977211411</v>
+      </c>
+      <c r="E29" t="n">
+        <v>63.01043996979114</v>
+      </c>
+      <c r="F29" t="n">
+        <v>7.122407900108874</v>
+      </c>
+      <c r="G29" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>DOOTB2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>97.5618080482725</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.09290543337439172</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2643.680309090349</v>
+      </c>
+      <c r="E30" t="n">
+        <v>63.01043996979114</v>
+      </c>
+      <c r="F30" t="n">
+        <v>7.307982121042217</v>
+      </c>
+      <c r="G30" t="n">
+        <v>98.76144106585235</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>DOOTB1</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>69.66003521340349</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.03074503106190044</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2516.670277432844</v>
+      </c>
+      <c r="E31" t="n">
+        <v>35.19003605939919</v>
+      </c>
+      <c r="F31" t="n">
+        <v>7.441541961566972</v>
+      </c>
+      <c r="G31" t="n">
+        <v>95.33631452370437</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>INCND</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>42.69739493516931</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.008515197331011116</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2516.670277432844</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4.433913697257946</v>
+      </c>
+      <c r="F32" t="n">
+        <v>8.010121843874133</v>
+      </c>
+      <c r="G32" t="n">
+        <v>97.43049131179792</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>INKOND</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>25.48103092484638</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.00326197640261656</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2512.363150814475</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4.433913697257946</v>
+      </c>
+      <c r="F33" t="n">
+        <v>8.42913149509533</v>
+      </c>
+      <c r="G33" t="n">
+        <v>98.56533973643332</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>KOND-KN</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>25.48103092484638</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.00326197640261656</v>
+      </c>
+      <c r="D34" t="n">
+        <v>106.8407390220721</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4.433913697257946</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>KN-GPK</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>27.50425985294982</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.6964</v>
+      </c>
+      <c r="D35" t="n">
+        <v>115.9367370619231</v>
+      </c>
+      <c r="E35" t="n">
+        <v>4.433913697257946</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>SP2-ASW</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>ASW-WOUT</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>SWIN</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>36.90321777</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>155.4770014565005</v>
+      </c>
+      <c r="E38" t="n">
+        <v>750</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>SWOUT</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>90</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>377.7590153325554</v>
+      </c>
+      <c r="E39" t="n">
+        <v>750</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>ST-PKM</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>502.6659145881229</v>
+      </c>
+      <c r="C40" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1111</v>
-      </c>
-      <c r="B2">
+      <c r="D40" t="n">
+        <v>3474.123553670518</v>
+      </c>
+      <c r="E40" t="n">
+        <v>7.232649937284363</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>ST-GPK</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>46.90321777</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D41" t="n">
+        <v>197.0785325604272</v>
+      </c>
+      <c r="E41" t="n">
+        <v>8.516408686927084</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>DROSVD-ST</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>517.6659145881229</v>
+      </c>
+      <c r="C42" t="n">
+        <v>6.812705273057301</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3456.146468541702</v>
+      </c>
+      <c r="E42" t="n">
+        <v>8.516408686927084</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>O2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CO2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Ar</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>H2O</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CH4</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>REF-COOL</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>700</v>
+      </c>
+      <c r="C2" t="n">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
+      <c r="D2" t="n">
+        <v>3687.984095444761</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8.520432459007663</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.06356000000000001</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.53662</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.05004</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.3259</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.02388</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>COOL-HTS</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>450</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3030.242194144161</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8.520432459007663</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.06356000000000001</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.53662</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.05004</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.3259</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.02388</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>HTS-HTSCOOL</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>275</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2555.053440566289</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8.520432459007663</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0864149892361543</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.513766606256586</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0500421238434872</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.348747199710724</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.00102908095304842</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>HTSCOOL-Separ</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>791.1357141934237</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8.520432459007663</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0864149892361543</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.513766606256586</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0500421238434872</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.348747199710724</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.00102908095304842</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Separ-SGaccum</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1348.041621038311</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.389052301314136</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1686684666338336</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.05094889585944182</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.09767435453489637</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.6806996788173055</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.002008604154522552</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>SGaccum-Separacc</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Separacc-Sepout</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Sepout-COMB</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Sepout-GTU</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>AIR-COMP</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>COMP-COMB</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>COMB-TURB</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>TURB-COOL</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>COOL-EX</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Ni</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>KPDm</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>KPD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.825887840425974</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.023581560449823</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.902305039792958</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.2312622706694084</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>CVD</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>CND</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>GTU</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>126.3361109559984</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>31.60587946521233</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>DK</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>6.217944397355591</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Turbine</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>46.72749754910889</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Tots1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>29.99676107845397</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>0.8483021686889919</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Tots2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>12.24215144901287</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0.7385054977823157</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Tots3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.469487593933031</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>0.7350301105243984</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Tots4</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.01909742770901167</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>0.0332760047507128</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>KN</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.04033087029912645</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0452060693531099</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8921560948840145</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.07642926562499497</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>SGgtu_comp</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>SGgtu_turb</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Qw</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Qg</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>KPD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>PEVD</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>39900.20263381861</v>
+      </c>
+      <c r="C2" t="n">
+        <v>40303.23498365517</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>IVD</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>87343.41772857885</v>
+      </c>
+      <c r="C3" t="n">
+        <v>88225.67447331197</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>EVD</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>34117.61002733932</v>
+      </c>
+      <c r="C4" t="n">
+        <v>34462.23235084779</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>PPND</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>449.4275014565476</v>
+      </c>
+      <c r="C5" t="n">
+        <v>453.9671731884319</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>29143.06555700735</v>
+      </c>
+      <c r="C6" t="n">
+        <v>29437.43995657308</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>GPK</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>32676.31297309862</v>
+      </c>
+      <c r="C7" t="n">
+        <v>33006.37674050366</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>SP2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>61.68801679525993</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>SP1</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>71.13087924949816</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>OD</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6.133815464960663</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Strans</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>24657.77245462312</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Strans_cool</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3097.782026653329</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Reformer</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>16084.7739896646</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Ref_cooler</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5604.245445491045</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Ref_HTS</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4048.813680140298</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>HTS_cooler</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15029.34185080636</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Ref_all</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>27780.18300309103</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>SGgtu_Qsw</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Qw</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>ASW</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>PKM</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>250</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>O2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CO2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>H2O</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Ar</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AIR</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>GTU-KU</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>542.1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>958.8691985312861</v>
+      </c>
+      <c r="E3" t="n">
+        <v>503.8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.7803</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1237</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0301</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0594</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0065</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>REF-SMESH</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>GTU-PEVD</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>503.8</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>PEVD-IVD</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>IVD-EVD</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>EVD-PPND</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>PPND-IND</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>IND-GPK</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>GPK-out</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>AIR-REF</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>CH4-REF</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AIR</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>PEVD-DROSVD</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>509.3322795256631</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7.812745514033886</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3424.696436299137</v>
+      </c>
+      <c r="E3" t="n">
+        <v>63.40510427141241</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>IVD-PEVD</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>296.5603950096133</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.179428157545242</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2755.987237739128</v>
+      </c>
+      <c r="E4" t="n">
+        <v>63.40510427141241</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>EVD-IVD</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>295.0510819317702</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8.179428157545242</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1317.370373062442</v>
+      </c>
+      <c r="E5" t="n">
+        <v>63.40510427141241</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>PEN-EVD</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>164.2085595063394</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8.179428157545242</v>
+      </c>
+      <c r="D6" t="n">
+        <v>698.0855161907353</v>
+      </c>
+      <c r="E6" t="n">
+        <v>63.40510427141241</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>BND-PEN</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>162.8382157337126</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6641639493186692</v>
+      </c>
+      <c r="D7" t="n">
+        <v>687.817025630564</v>
+      </c>
+      <c r="E7" t="n">
+        <v>63.40510427141241</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>PPND-DROSND</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>176.3683699821369</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6582119785958854</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2793.715447354862</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15.1575195485444</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>IND-PPND</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>162.8382156014002</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6641639493186692</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2760.521437304768</v>
+      </c>
+      <c r="E9" t="n">
+        <v>15.1575195485444</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>GPK-IND</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>161.2325436845149</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6641639493186692</v>
+      </c>
+      <c r="D10" t="n">
+        <v>680.845899614623</v>
+      </c>
+      <c r="E10" t="n">
+        <v>78.56262381995681</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>GPK-REC</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>161.2325436845149</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6641639493186692</v>
+      </c>
+      <c r="D11" t="n">
+        <v>680.845899614623</v>
+      </c>
+      <c r="E11" t="n">
+        <v>87.63761493078603</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>REC-GPK</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6641639493186692</v>
+      </c>
+      <c r="D12" t="n">
+        <v>251.721328043138</v>
+      </c>
+      <c r="E12" t="n">
+        <v>87.63084770236058</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>SMESH-GPK</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>48.14726873871808</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6964</v>
+      </c>
+      <c r="D13" t="n">
+        <v>202.1877358387441</v>
+      </c>
+      <c r="E13" t="n">
+        <v>73.34107696400085</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>SMESHOD-REC</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>48.14726873871808</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6964</v>
+      </c>
+      <c r="D14" t="n">
+        <v>202.1877358387441</v>
+      </c>
+      <c r="E14" t="n">
+        <v>73.34107696400085</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>SP1-OD</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>68.48027385770553</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.02920639028145948</v>
+      </c>
+      <c r="D15" t="n">
+        <v>286.6962368586081</v>
+      </c>
+      <c r="E15" t="n">
+        <v>58.58998849041154</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>OD-GPK</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>43.18815949347157</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.02919243641332626</v>
+      </c>
+      <c r="D16" t="n">
+        <v>180.8781507171376</v>
+      </c>
+      <c r="E16" t="n">
+        <v>58.57654527798974</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>SWIN-TURB</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>36.90321777</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>192.602</v>
+      </c>
+      <c r="E17" t="n">
+        <v>625.0228031558984</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>SWIN-OD</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>36.90321777</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>192.602</v>
+      </c>
+      <c r="E18" t="n">
+        <v>78.73469359179686</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>OD-SP1</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>55.50958565422067</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>232.418635134222</v>
+      </c>
+      <c r="E19" t="n">
+        <v>78.73469359179686</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>OTB2-SP2</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>97.56164706084434</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.09289740789141519</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2643.680175888252</v>
+      </c>
+      <c r="E20" t="n">
+        <v>27.80819297080961</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>SP2-SP1</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>96.14973739202742</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.08825253749684443</v>
+      </c>
+      <c r="D21" t="n">
+        <v>402.9330643650975</v>
+      </c>
+      <c r="E21" t="n">
+        <v>27.80819297080961</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>SP1-SP2</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>66.42769861493919</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>278.1327741007504</v>
+      </c>
+      <c r="E22" t="n">
+        <v>625.0228031558984</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>SP2-WOUT</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>90</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>376.83</v>
+      </c>
+      <c r="E23" t="n">
+        <v>625.0228031558984</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>WIN-SP1</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>39.24707893286219</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>202.3831279625776</v>
+      </c>
+      <c r="E24" t="n">
+        <v>625.0228031558984</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>OTB1-SP1</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>69.65893790015485</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.03074356871732577</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2516.668078111979</v>
+      </c>
+      <c r="E25" t="n">
+        <v>30.76958458001959</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>DROSVD-TURBVD</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>506.4756361875973</v>
+      </c>
+      <c r="C26" t="n">
+        <v>7.207111082971978</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3424.696436299137</v>
+      </c>
+      <c r="E26" t="n">
+        <v>58.18355741545645</v>
+      </c>
+      <c r="F26" t="n">
+        <v>6.804370915518806</v>
+      </c>
+      <c r="G26" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>ENDOFVD</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>196.5628233363635</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.511690953164127</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2847.83408775513</v>
+      </c>
+      <c r="E27" t="n">
+        <v>58.18355741545645</v>
+      </c>
+      <c r="F27" t="n">
+        <v>7.033669480209948</v>
+      </c>
+      <c r="G27" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>DROSND-TURBND</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>173.931024515225</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.5770755196405747</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2793.715447354862</v>
+      </c>
+      <c r="E28" t="n">
+        <v>15.1575195485444</v>
+      </c>
+      <c r="F28" t="n">
+        <v>6.861930947898871</v>
+      </c>
+      <c r="G28" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>SMESHEND</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>191.3943618843842</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.511690953164127</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2836.649300405875</v>
+      </c>
+      <c r="E29" t="n">
+        <v>73.34107696400085</v>
+      </c>
+      <c r="F29" t="n">
+        <v>7.009725388715711</v>
+      </c>
+      <c r="G29" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>DOOTB2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>125.6979087957271</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.2372696378767356</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2713.947539547683</v>
+      </c>
+      <c r="E30" t="n">
+        <v>73.34107696400085</v>
+      </c>
+      <c r="F30" t="n">
+        <v>7.069542391381603</v>
+      </c>
+      <c r="G30" t="n">
+        <v>99.99377466758951</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>DOOTB1</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>109.880069508677</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.142802047820227</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2642.11856484366</v>
+      </c>
+      <c r="E31" t="n">
+        <v>73.34107696400085</v>
+      </c>
+      <c r="F31" t="n">
+        <v>7.11212356446137</v>
+      </c>
+      <c r="G31" t="n">
+        <v>97.81340059948801</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>INCND</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>109.880069508677</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.142802047820227</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2642.11856484366</v>
+      </c>
+      <c r="E32" t="n">
+        <v>73.34107696400085</v>
+      </c>
+      <c r="F32" t="n">
+        <v>7.11212356446137</v>
+      </c>
+      <c r="G32" t="n">
+        <v>97.81340059948801</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>INKOND</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>47.71880596688425</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.01101982411499404</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2318.719768222213</v>
+      </c>
+      <c r="E33" t="n">
+        <v>73.34107696400085</v>
+      </c>
+      <c r="F33" t="n">
+        <v>7.277875849682329</v>
+      </c>
+      <c r="G33" t="n">
+        <v>88.75234025636995</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>KOND-KN</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>47.71880596545412</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.01101982411499404</v>
+      </c>
+      <c r="D34" t="n">
+        <v>199.8023839305886</v>
+      </c>
+      <c r="E34" t="n">
+        <v>73.34107696400085</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>KN-GPK</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>48.14726873871808</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.6964</v>
+      </c>
+      <c r="D35" t="n">
+        <v>202.1877358387441</v>
+      </c>
+      <c r="E35" t="n">
+        <v>73.34107696400085</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>SP2-ASW</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>ASW-WOUT</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>SWIN</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>36.90321777</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>155.4770014565005</v>
+      </c>
+      <c r="E38" t="n">
+        <v>750</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>SWOUT</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>90</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>377.7590153325554</v>
+      </c>
+      <c r="E39" t="n">
+        <v>750</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>ST-PKM</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>502.6659145881229</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3474.123553670518</v>
+      </c>
+      <c r="E40" t="n">
+        <v>7.232649937284363</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>ST-GPK</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>80</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2</v>
+      </c>
+      <c r="D41" t="n">
+        <v>336.57</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>DROSVD-ST</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>517.6659145881229</v>
+      </c>
+      <c r="C42" t="n">
+        <v>6.812705273057301</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3456.146468541702</v>
+      </c>
+      <c r="E42" t="n">
+        <v>8.516408686927084</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>O2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CO2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Ar</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>H2O</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CH4</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>REF-COOL</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>700</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3687.984095444761</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8.520432459007663</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.06356000000000001</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.53662</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.05004</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.3259</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.02388</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>COOL-HTS</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>450</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3030.242194144161</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8.520432459007663</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.06356000000000001</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.53662</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.05004</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.3259</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.02388</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>HTS-HTSCOOL</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>275</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2555.053440566289</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8.520432459007663</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0864149892361543</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.513766606256586</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0500421238434872</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.348747199710724</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.00102908095304842</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>HTSCOOL-Separ</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>791.1357141934237</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8.520432459007663</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0864149892361543</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.513766606256586</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0500421238434872</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.348747199710724</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.00102908095304842</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Separ-SGaccum</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1348.041621038311</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.389052301314136</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1686684666338336</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.05094889585944182</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.09767435453489637</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.6806996788173055</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.002008604154522552</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>SGaccum-Separacc</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>118.5971149612587</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1397.132755523034</v>
+      </c>
+      <c r="E7" t="n">
+        <v>68582.99907187685</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.168738364456343</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0503573198627571</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0975081144748292</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.681387369772999</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.00200883143307171</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Separacc-Sepout</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>118.5971149612587</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1286.688591415202</v>
+      </c>
+      <c r="E8" t="n">
+        <v>63084.93331006043</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.1776861634230223</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1026787406614215</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.7175197408719294</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.002115355043626928</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Sepout-COMB</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>118.5971149612587</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1286.688591415202</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.299787035420863</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.1776861634230223</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.1026787406614215</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.7175197408719294</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.002115355043626928</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Sepout-GTU</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>118.5971149612587</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1286.688591415202</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.081111111111111</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.1776861634230223</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.1026787406614215</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.7175197408719294</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.002115355043626928</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>AIR-COMP</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>15</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>293.1871693088577</v>
+      </c>
+      <c r="E11" t="n">
+        <v>141.1641180753927</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>COMP-COMB</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>343.3557890055408</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>631.5000402827663</v>
+      </c>
+      <c r="E12" t="n">
+        <v>141.1641180753927</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>COMB-TURB</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>750</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1184.219373101558</v>
+      </c>
+      <c r="E13" t="n">
+        <v>144.4639074758686</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.7503245989003237</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.1684226970546612</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.01678751185501805</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.009619546139747739</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.05484564605024932</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>TURB-COOL</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>315.2847720095488</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>688.6193974866331</v>
+      </c>
+      <c r="E14" t="n">
+        <v>144.4639074758686</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.7503245989003237</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.1684226970546612</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.01678751185501805</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.009619546139747739</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.05484564605024932</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>COOL-EX</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>70</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>429.0231634234797</v>
+      </c>
+      <c r="E15" t="n">
+        <v>144.4639074758686</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.7503245989003237</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.1684226970546612</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.01678751185501805</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.009619546139747739</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.05484564605024932</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/resdataTemp8.xlsx
+++ b/resdataTemp8.xlsx
@@ -527,7 +527,7 @@
         <v>954.4969526878768</v>
       </c>
       <c r="E3" t="n">
-        <v>417.2977993125638</v>
+        <v>434.1228704474921</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>11.6781138188319</v>
+        <v>13.57297754204483</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>546.4140569481217</v>
+        <v>547.3098812992665</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>970.1946012764474</v>
+        <v>971.9787817795378</v>
       </c>
       <c r="E5" t="n">
-        <v>428.9759131313957</v>
+        <v>447.6958479895369</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7783501734711379</v>
+        <v>0.7781287202230007</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1205310761183467</v>
+        <v>0.1201711628253928</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03178399109331339</v>
+        <v>0.031975251850067</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06277506379409661</v>
+        <v>0.06315838960734692</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006559695523105253</v>
+        <v>0.006566475494192541</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>527.3866021628869</v>
+        <v>469.0910193436936</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>948.2492083508614</v>
+        <v>882.3290402720404</v>
       </c>
       <c r="E6" t="n">
-        <v>428.9759131313957</v>
+        <v>447.6958479895369</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7783501734711379</v>
+        <v>0.7781287202230007</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1205310761183467</v>
+        <v>0.1201711628253928</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03178399109331339</v>
+        <v>0.031975251850067</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06277506379409661</v>
+        <v>0.06315838960734692</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006559695523105253</v>
+        <v>0.006566475494192541</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>286.4151512562771</v>
+        <v>291.1529392389273</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>678.5864728643215</v>
+        <v>684.4224562401761</v>
       </c>
       <c r="E7" t="n">
-        <v>428.9759131313957</v>
+        <v>447.6958479895369</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7783501734711379</v>
+        <v>0.7781287202230007</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1205310761183467</v>
+        <v>0.1201711628253928</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03178399109331339</v>
+        <v>0.031975251850067</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06277506379409661</v>
+        <v>0.06315838960734692</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006559695523105253</v>
+        <v>0.006566475494192541</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>267.9141224514609</v>
+        <v>222.6548834542836</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>658.5024699901367</v>
+        <v>610.3687021164164</v>
       </c>
       <c r="E8" t="n">
-        <v>428.9759131313957</v>
+        <v>447.6958479895369</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7783501734711379</v>
+        <v>0.7781287202230007</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1205310761183467</v>
+        <v>0.1201711628253928</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03178399109331339</v>
+        <v>0.031975251850067</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06277506379409661</v>
+        <v>0.06315838960734692</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006559695523105253</v>
+        <v>0.006566475494192541</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>266.9595609579862</v>
+        <v>221.7361520539311</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>657.4684517050368</v>
+        <v>609.3826547653422</v>
       </c>
       <c r="E9" t="n">
-        <v>428.9759131313957</v>
+        <v>447.6958479895369</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7783501734711379</v>
+        <v>0.7781287202230007</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1205310761183467</v>
+        <v>0.1201711628253928</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03178399109331339</v>
+        <v>0.031975251850067</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06277506379409661</v>
+        <v>0.06315838960734692</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006559695523105253</v>
+        <v>0.006566475494192541</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>176.2403638993516</v>
+        <v>162.3907471804983</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>560.1178764517479</v>
+        <v>546.0506492393275</v>
       </c>
       <c r="E10" t="n">
-        <v>428.9759131313957</v>
+        <v>447.6958479895369</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7783501734711379</v>
+        <v>0.7781287202230007</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1205310761183467</v>
+        <v>0.1201711628253928</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03178399109331339</v>
+        <v>0.031975251850067</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06277506379409661</v>
+        <v>0.06315838960734692</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006559695523105253</v>
+        <v>0.006566475494192541</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>95.84729235337439</v>
+        <v>95.75892572372162</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>475.1316124781462</v>
+        <v>475.6732004437675</v>
       </c>
       <c r="E11" t="n">
-        <v>428.9759131313957</v>
+        <v>447.6958479895369</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7783501734711379</v>
+        <v>0.7781287202230007</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1205310761183467</v>
+        <v>0.1201711628253928</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03178399109331339</v>
+        <v>0.031975251850067</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06277506379409661</v>
+        <v>0.06315838960734692</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006559695523105253</v>
+        <v>0.006566475494192541</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>11.06978969648079</v>
+        <v>12.86594815536074</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6083241223511195</v>
+        <v>0.7070293866841039</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.520555816950408</v>
+        <v>11.9739249702305</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.520555816950408</v>
+        <v>11.9739249702305</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.520555816950408</v>
+        <v>11.9739249702305</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.520555816950408</v>
+        <v>11.9739249702305</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>3.389101367663967</v>
+        <v>4.76269933144317</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944175</v>
+        <v>0.05094889585944173</v>
       </c>
       <c r="K6" t="n">
         <v>0.09767435453489638</v>
@@ -1168,13 +1168,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>118.5971149612587</v>
+        <v>19.89625428076818</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>1397.132755523034</v>
+        <v>1114.92175222735</v>
       </c>
       <c r="E7" t="n">
         <v>68582.99907187685</v>
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>118.5971149612587</v>
+        <v>19.89625428076818</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>1286.688591415202</v>
+        <v>1000.397595548977</v>
       </c>
       <c r="E8" t="n">
-        <v>63084.93331006043</v>
+        <v>63179.98242722082</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1229,22 +1229,22 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1776861634230223</v>
+        <v>0.1775234227143795</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.0009158884716042933</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1026787406614215</v>
+        <v>0.1025846983865708</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7175197408719294</v>
+        <v>0.7168625728131163</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002115355043626928</v>
+        <v>0.00211341761432912</v>
       </c>
     </row>
     <row r="9">
@@ -1254,16 +1254,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>118.5971149612587</v>
+        <v>19.89625428076818</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>1286.688591415202</v>
+        <v>1000.397595548977</v>
       </c>
       <c r="E9" t="n">
-        <v>3.299787035420863</v>
+        <v>3.306387668557001</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1272,22 +1272,22 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1776861634230223</v>
+        <v>0.1775234227143795</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.0009158884716042933</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1026787406614215</v>
+        <v>0.1025846983865708</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7175197408719294</v>
+        <v>0.7168625728131163</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002115355043626928</v>
+        <v>0.00211341761432912</v>
       </c>
     </row>
     <row r="10">
@@ -1297,13 +1297,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>118.5971149612587</v>
+        <v>19.89625428076818</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>1286.688591415202</v>
+        <v>1000.397595548977</v>
       </c>
       <c r="E10" t="n">
         <v>1.081111111111111</v>
@@ -1315,22 +1315,22 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1776861634230223</v>
+        <v>0.1775234227143795</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.0009158884716042933</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1026787406614215</v>
+        <v>0.1025846983865708</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7175197408719294</v>
+        <v>0.7168625728131163</v>
       </c>
       <c r="M10" t="n">
-        <v>0.002115355043626928</v>
+        <v>0.00211341761432912</v>
       </c>
     </row>
     <row r="11">
@@ -1349,7 +1349,7 @@
         <v>293.1871693088577</v>
       </c>
       <c r="E11" t="n">
-        <v>141.1641180753927</v>
+        <v>139.0601183375162</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -1376,7 +1376,7 @@
         <v>631.5000402827663</v>
       </c>
       <c r="E12" t="n">
-        <v>141.1641180753927</v>
+        <v>139.0601183375162</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -1400,25 +1400,25 @@
         <v>1.2</v>
       </c>
       <c r="D13" t="n">
-        <v>1184.219373101558</v>
+        <v>1186.012627902746</v>
       </c>
       <c r="E13" t="n">
-        <v>144.4639074758686</v>
+        <v>142.3665086828107</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7503245989003237</v>
+        <v>0.7498372047820673</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1684226970546612</v>
+        <v>0.1677886410091608</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01678751185501805</v>
+        <v>0.01703883370616781</v>
       </c>
       <c r="I13" t="n">
-        <v>0.009619546139747739</v>
+        <v>0.00961329749720599</v>
       </c>
       <c r="J13" t="n">
-        <v>0.05484564605024932</v>
+        <v>0.05572202300539823</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1437,31 +1437,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>315.2847720095488</v>
+        <v>315.3819731227851</v>
       </c>
       <c r="C14" t="n">
         <v>0.1</v>
       </c>
       <c r="D14" t="n">
-        <v>688.6193974866331</v>
+        <v>690.2386379231868</v>
       </c>
       <c r="E14" t="n">
-        <v>144.4639074758686</v>
+        <v>142.3665086828107</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7503245989003237</v>
+        <v>0.7498372047820673</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1684226970546612</v>
+        <v>0.1677886410091608</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01678751185501805</v>
+        <v>0.01703883370616781</v>
       </c>
       <c r="I14" t="n">
-        <v>0.009619546139747739</v>
+        <v>0.00961329749720599</v>
       </c>
       <c r="J14" t="n">
-        <v>0.05484564605024932</v>
+        <v>0.05572202300539823</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1480,31 +1480,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>70</v>
+        <v>56.90321777</v>
       </c>
       <c r="C15" t="n">
         <v>0.1</v>
       </c>
       <c r="D15" t="n">
-        <v>429.0231634234797</v>
+        <v>416.7982249787033</v>
       </c>
       <c r="E15" t="n">
-        <v>144.4639074758686</v>
+        <v>142.3665086828107</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7503245989003237</v>
+        <v>0.7498372047820673</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1684226970546612</v>
+        <v>0.1677886410091608</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01678751185501805</v>
+        <v>0.01703883370616781</v>
       </c>
       <c r="I15" t="n">
-        <v>0.009619546139747739</v>
+        <v>0.00961329749720599</v>
       </c>
       <c r="J15" t="n">
-        <v>0.05484564605024932</v>
+        <v>0.05572202300539823</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5781695122119727</v>
+        <v>0.6457609288861013</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6387498397262426</v>
+        <v>0.6782609305099057</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9051579761801058</v>
+        <v>0.9520833352447834</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60.51611919034418</v>
+        <v>56.21829735718667</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.89194623122829</v>
+        <v>33.89796126526096</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8396862489368666</v>
+        <v>0.8487858564406985</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.516281427423575</v>
+        <v>13.31916132081587</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8361612342976397</v>
+        <v>0.7887183192619555</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.333609681490447</v>
+        <v>6.371386202475551</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8143594317301569</v>
+        <v>0.6230195821741279</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>23.77428185020187</v>
+        <v>2.629788568634288</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.833046774113346</v>
+        <v>0.5212044419929525</v>
       </c>
     </row>
     <row r="12">
@@ -1706,16 +1706,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.07543578011790331</v>
+        <v>0.1656510989411842</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07679453167636534</v>
+        <v>0.1842218234367367</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9823066626125384</v>
+        <v>0.8991936777678794</v>
       </c>
       <c r="E12" t="n">
-        <v>0.75</v>
+        <v>0.07642926562499497</v>
       </c>
     </row>
     <row r="13">
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47757.63806458595</v>
+        <v>47045.8278727366</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71596.30902227727</v>
+        <v>70581.61204913662</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11105.85362882147</v>
+        <v>42420.30315836219</v>
       </c>
       <c r="C2" t="n">
-        <v>11218.03396850653</v>
+        <v>42848.79106905272</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126892.5286823341</v>
+        <v>91602.83340604097</v>
       </c>
       <c r="C3" t="n">
-        <v>128174.271396297</v>
+        <v>92528.11455155653</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10239.75678012556</v>
+        <v>39803.93862953156</v>
       </c>
       <c r="C4" t="n">
-        <v>10343.1886667935</v>
+        <v>40205.99861568845</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>527.0729571752262</v>
+        <v>503.4320283154698</v>
       </c>
       <c r="C5" t="n">
-        <v>532.3969264396225</v>
+        <v>508.5172003186564</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47334.2347709311</v>
+        <v>32481.12081383127</v>
       </c>
       <c r="C6" t="n">
-        <v>47812.35835447586</v>
+        <v>32809.21294326391</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45924.92721783929</v>
+        <v>38220.34740268129</v>
       </c>
       <c r="C7" t="n">
-        <v>46388.81537155484</v>
+        <v>38606.41151785989</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,11 +1883,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>51.74434452463603</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="9">
@@ -1897,11 +1897,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>70.03853410425856</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="10">
@@ -1911,11 +1911,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>6.019542988106896</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="11">
@@ -1985,7 +1985,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15029.55944406825</v>
+        <v>0</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -2009,7 +2009,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>37502.28633878332</v>
+        <v>38928.75692369217</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -2025,7 +2025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2049,6 +2049,11 @@
           <t>V</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Qnr</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2059,6 +2064,7 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2067,13 +2073,14 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>95819554.475325</v>
+        <v>76464677.49822366</v>
       </c>
       <c r="C3" t="n">
-        <v>118.5971149612587</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10000</v>
+        <v>19.89625428076818</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>23.5073169222034</v>
       </c>
     </row>
   </sheetData>
@@ -2250,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>312.152905000468</v>
+        <v>520.8657387039345</v>
       </c>
       <c r="C3" t="n">
-        <v>5.622718938284155</v>
+        <v>6.354033694267648</v>
       </c>
       <c r="D3" t="n">
-        <v>2941.579147024618</v>
+        <v>3468.783403278401</v>
       </c>
       <c r="E3" t="n">
-        <v>59.08529927370592</v>
+        <v>57.36708162082488</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2271,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.3213562198079</v>
+        <v>283.1654478722517</v>
       </c>
       <c r="C4" t="n">
-        <v>6.068002325603246</v>
+        <v>6.728601480164955</v>
       </c>
       <c r="D4" t="n">
-        <v>2783.845240420217</v>
+        <v>2776.083190469061</v>
       </c>
       <c r="E4" t="n">
-        <v>59.08529927370592</v>
+        <v>57.36708162082488</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2292,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>198.0789877761092</v>
+        <v>281.9486408700944</v>
       </c>
       <c r="C5" t="n">
-        <v>6.068002325603246</v>
+        <v>6.728601480164955</v>
       </c>
       <c r="D5" t="n">
-        <v>845.5452487561244</v>
+        <v>1247.037726421893</v>
       </c>
       <c r="E5" t="n">
-        <v>59.08529927370592</v>
+        <v>57.36708162082488</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2313,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.206444426238</v>
+        <v>159.026770012877</v>
       </c>
       <c r="C6" t="n">
-        <v>6.068002325603246</v>
+        <v>6.728601480164955</v>
       </c>
       <c r="D6" t="n">
-        <v>701.1855458774739</v>
+        <v>674.8667985581552</v>
       </c>
       <c r="E6" t="n">
-        <v>59.08529927370592</v>
+        <v>57.36708162082488</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2334,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>161.0464003981915</v>
+        <v>151.9900882952273</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6348637085098151</v>
+        <v>0.5021140886726497</v>
       </c>
       <c r="D7" t="n">
-        <v>680.0213074913106</v>
+        <v>640.7720936286674</v>
       </c>
       <c r="E7" t="n">
-        <v>59.08529927370592</v>
+        <v>57.36708162082488</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2355,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>170.462652939828</v>
+        <v>166.4786313057132</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6253102929797916</v>
+        <v>0.4959821394768716</v>
       </c>
       <c r="D8" t="n">
-        <v>2782.166595222117</v>
+        <v>2782.479728264042</v>
       </c>
       <c r="E8" t="n">
-        <v>18.61284632277</v>
+        <v>12.78472285893652</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2376,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>161.0464002695814</v>
+        <v>151.990088184395</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6348637085098151</v>
+        <v>0.5021140886726497</v>
       </c>
       <c r="D9" t="n">
-        <v>2758.586925817015</v>
+        <v>2748.297057482577</v>
       </c>
       <c r="E9" t="n">
-        <v>18.61284632277</v>
+        <v>12.78472285893652</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2397,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.1525046945611</v>
+        <v>148.2687497324122</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6348637085098151</v>
+        <v>0.5021140886726497</v>
       </c>
       <c r="D10" t="n">
-        <v>645.8672715848594</v>
+        <v>624.7429325144404</v>
       </c>
       <c r="E10" t="n">
-        <v>77.69814559647592</v>
+        <v>70.1518044797614</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2418,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>153.1525046945611</v>
+        <v>148.2687497324122</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6348637085098151</v>
+        <v>0.5021140886726497</v>
       </c>
       <c r="D11" t="n">
-        <v>645.8672715848594</v>
+        <v>624.7429325144404</v>
       </c>
       <c r="E11" t="n">
-        <v>91.56566394706169</v>
+        <v>83.59097714534028</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2442,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6348637085098151</v>
+        <v>0.5021140886726497</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6967252523812</v>
+        <v>251.58525601939</v>
       </c>
       <c r="E12" t="n">
-        <v>91.55963209825808</v>
+        <v>83.59609017777986</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2460,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>43.1654890235655</v>
+        <v>42.85504395738809</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>181.3694406076488</v>
+        <v>180.0722891129192</v>
       </c>
       <c r="E13" t="n">
-        <v>77.70136912572411</v>
+        <v>70.15055181967979</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2481,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>42.684421851423</v>
+        <v>42.03177895767021</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>179.3593751492565</v>
+        <v>176.6324657104437</v>
       </c>
       <c r="E14" t="n">
-        <v>68.88690721169755</v>
+        <v>58.3485014979037</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2502,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>67.90534584693955</v>
+        <v>69.44017134208013</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0284805169810469</v>
+        <v>0.03045319987858336</v>
       </c>
       <c r="D15" t="n">
-        <v>284.2871579331423</v>
+        <v>290.7188665746813</v>
       </c>
       <c r="E15" t="n">
-        <v>64.42763219449145</v>
+        <v>53.90873496024285</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2523,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.88113406981734</v>
+        <v>43.36569626367611</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02849184123103183</v>
+        <v>0.03046022407690355</v>
       </c>
       <c r="D16" t="n">
-        <v>183.7742047039665</v>
+        <v>181.6213688804965</v>
       </c>
       <c r="E16" t="n">
-        <v>64.44245127688421</v>
+        <v>53.91481040863571</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2553,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>626.2018594570779</v>
+        <v>576.4572588296783</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2574,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>78.88322039135059</v>
+        <v>72.61684759908032</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2586,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>56.32574576761847</v>
+        <v>56.05928452944716</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>235.8358975290186</v>
+        <v>234.7202243247953</v>
       </c>
       <c r="E19" t="n">
-        <v>78.88322039135059</v>
+        <v>72.61684759908032</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2607,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.70013614848773</v>
+        <v>96.87461782050758</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09340551002770615</v>
+        <v>0.09062659839987287</v>
       </c>
       <c r="D20" t="n">
-        <v>2426.976199866253</v>
+        <v>2650.208285515998</v>
       </c>
       <c r="E20" t="n">
-        <v>31.54926237209387</v>
+        <v>24.36423583560652</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2628,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>96.29906147753684</v>
+        <v>95.4739737485187</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08873523452632084</v>
+        <v>0.08609526847987922</v>
       </c>
       <c r="D21" t="n">
-        <v>403.562309042781</v>
+        <v>400.0857421491251</v>
       </c>
       <c r="E21" t="n">
-        <v>31.54926237209387</v>
+        <v>24.36423583560652</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2649,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>65.89585019636768</v>
+        <v>67.51338486633119</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>275.9059247721915</v>
+        <v>282.6785424353287</v>
       </c>
       <c r="E22" t="n">
-        <v>626.2018594570779</v>
+        <v>576.4572588296783</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2679,7 +2686,7 @@
         <v>376.83</v>
       </c>
       <c r="E23" t="n">
-        <v>626.2018594570779</v>
+        <v>576.4572588296783</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2691,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>39.34989136806576</v>
+        <v>39.31632500242986</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2700,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>626.2018594570779</v>
+        <v>576.4572588296783</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2712,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>69.0794581620861</v>
+        <v>70.6264576605048</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02997949155899674</v>
+        <v>0.03205599987219301</v>
       </c>
       <c r="D25" t="n">
-        <v>2307.475392946501</v>
+        <v>2526.949965153338</v>
       </c>
       <c r="E25" t="n">
-        <v>32.8900285521328</v>
+        <v>29.55003499769274</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2733,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>306.5517258394066</v>
+        <v>518.0050627902982</v>
       </c>
       <c r="C26" t="n">
-        <v>5.127768624140812</v>
+        <v>5.725974382049326</v>
       </c>
       <c r="D26" t="n">
-        <v>2941.579147024618</v>
+        <v>3468.783403278401</v>
       </c>
       <c r="E26" t="n">
-        <v>50.27259252620723</v>
+        <v>45.56381854265612</v>
       </c>
       <c r="F26" t="n">
-        <v>6.228591598377153</v>
+        <v>6.961643764480828</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2758,22 +2765,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>143.5664869676162</v>
+        <v>199.6050008891395</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3995355610891185</v>
+        <v>0.3733746654831988</v>
       </c>
       <c r="D27" t="n">
-        <v>2534.431338921052</v>
+        <v>2861.437513481808</v>
       </c>
       <c r="E27" t="n">
-        <v>50.27259252620723</v>
+        <v>45.56381854265612</v>
       </c>
       <c r="F27" t="n">
-        <v>6.407367287374018</v>
+        <v>7.204517603027498</v>
       </c>
       <c r="G27" t="n">
-        <v>90.45856893306775</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -2783,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>166.39024232117</v>
+        <v>163.9676029540192</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4981282151465085</v>
+        <v>0.4198905850193932</v>
       </c>
       <c r="D28" t="n">
-        <v>2782.166595222117</v>
+        <v>2782.479728264042</v>
       </c>
       <c r="E28" t="n">
-        <v>18.61284632277</v>
+        <v>12.78472285893652</v>
       </c>
       <c r="F28" t="n">
-        <v>6.90113080140505</v>
+        <v>6.977970578007364</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2808,22 +2815,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>143.5664869676162</v>
+        <v>191.3351757667034</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3995355610891185</v>
+        <v>0.3733746654831988</v>
       </c>
       <c r="D29" t="n">
-        <v>2601.369407855663</v>
+        <v>2844.137108410551</v>
       </c>
       <c r="E29" t="n">
-        <v>68.88543884897723</v>
+        <v>58.34854140159264</v>
       </c>
       <c r="F29" t="n">
-        <v>6.567999446235049</v>
+        <v>7.167598543144752</v>
       </c>
       <c r="G29" t="n">
-        <v>93.59600810914598</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
@@ -2833,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>97.70166593439859</v>
+        <v>96.87478378061445</v>
       </c>
       <c r="C30" t="n">
-        <v>0.09337714501820778</v>
+        <v>0.09061684702373664</v>
       </c>
       <c r="D30" t="n">
-        <v>2426.978114744496</v>
+        <v>2650.208535461511</v>
       </c>
       <c r="E30" t="n">
-        <v>68.88543884897723</v>
+        <v>58.34854140159264</v>
       </c>
       <c r="F30" t="n">
-        <v>6.721371050824898</v>
+        <v>7.336831387333413</v>
       </c>
       <c r="G30" t="n">
-        <v>89.17321979474137</v>
+        <v>99.0990170554149</v>
       </c>
     </row>
     <row r="31">
@@ -2858,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>69.08362922280043</v>
+        <v>70.6277374391513</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02998493338206511</v>
+        <v>0.0320577667418762</v>
       </c>
       <c r="D31" t="n">
-        <v>2307.483316551333</v>
+        <v>2526.953460491886</v>
       </c>
       <c r="E31" t="n">
-        <v>37.34783520661858</v>
+        <v>33.98984143904253</v>
       </c>
       <c r="F31" t="n">
-        <v>6.841241652866375</v>
+        <v>7.453196660300516</v>
       </c>
       <c r="G31" t="n">
-        <v>86.42383568761196</v>
+        <v>95.70161268402342</v>
       </c>
     </row>
     <row r="32">
@@ -2883,22 +2890,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>41.94013559918631</v>
+        <v>42.73425836746668</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008183774214369364</v>
+        <v>0.008531622022462836</v>
       </c>
       <c r="D32" t="n">
-        <v>2307.483316551333</v>
+        <v>2526.953460491886</v>
       </c>
       <c r="E32" t="n">
-        <v>4.444455934813334</v>
+        <v>4.433691089267988</v>
       </c>
       <c r="F32" t="n">
-        <v>7.364028329267555</v>
+        <v>8.041811669628501</v>
       </c>
       <c r="G32" t="n">
-        <v>88.77738837647161</v>
+        <v>97.85622574616012</v>
       </c>
     </row>
     <row r="33">
@@ -2908,22 +2915,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>25.33987319903798</v>
+        <v>25.48806159881997</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003234726794114067</v>
+        <v>0.003263338847174219</v>
       </c>
       <c r="D33" t="n">
-        <v>2303.636389979113</v>
+        <v>2522.62178081574</v>
       </c>
       <c r="E33" t="n">
-        <v>4.444455934813334</v>
+        <v>4.433691089267988</v>
       </c>
       <c r="F33" t="n">
-        <v>7.733665538755376</v>
+        <v>8.463293234836843</v>
       </c>
       <c r="G33" t="n">
-        <v>90.0246836279177</v>
+        <v>98.9851545333852</v>
       </c>
     </row>
     <row r="34">
@@ -2933,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25.33987319903798</v>
+        <v>25.48806159881997</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003234726794114067</v>
+        <v>0.003263338847174219</v>
       </c>
       <c r="D34" t="n">
-        <v>106.2504722236683</v>
+        <v>106.8701383701404</v>
       </c>
       <c r="E34" t="n">
-        <v>4.444455934813334</v>
+        <v>4.433691089267988</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2954,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>27.36301193495353</v>
+        <v>27.51129499895649</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>115.3464919869687</v>
+        <v>115.9661352997603</v>
       </c>
       <c r="E35" t="n">
-        <v>4.444455934813334</v>
+        <v>4.433691089267988</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3059,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>297.1541467142114</v>
+        <v>505.8462701383095</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3017.567516238169</v>
+        <v>3481.143906256937</v>
       </c>
       <c r="E40" t="n">
-        <v>7.23275465084452</v>
+        <v>10.16417982322362</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3089,7 +3096,7 @@
         <v>197.0785325604272</v>
       </c>
       <c r="E41" t="n">
-        <v>8.814461914026563</v>
+        <v>11.8020503217761</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3101,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>312.1541467142114</v>
+        <v>520.8462701383095</v>
       </c>
       <c r="C42" t="n">
-        <v>5.622661598799795</v>
+        <v>6.354492508825095</v>
       </c>
       <c r="D42" t="n">
-        <v>2941.581095331945</v>
+        <v>3468.728300738045</v>
       </c>
       <c r="E42" t="n">
-        <v>8.814461914026563</v>
+        <v>11.8020503217761</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3212,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.520555816950408</v>
+        <v>11.9739249702305</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3255,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.520555816950408</v>
+        <v>11.9739249702305</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3298,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.520555816950408</v>
+        <v>11.9739249702305</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3341,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.520555816950408</v>
+        <v>11.9739249702305</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3384,7 +3391,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>3.389101367663967</v>
+        <v>4.76269933144317</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3399,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944175</v>
+        <v>0.05094889585944173</v>
       </c>
       <c r="K6" t="n">
         <v>0.09767435453489638</v>
@@ -3630,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.250495358946515</v>
+        <v>1.955913720527865</v>
       </c>
       <c r="C2" t="n">
-        <v>1.478804610610897</v>
+        <v>2.218992303191158</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8456122938580329</v>
+        <v>0.8814423185312736</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2828098040539421</v>
+        <v>0.1992427990579997</v>
       </c>
     </row>
     <row r="3">
@@ -3672,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>111.0056264333233</v>
+        <v>118.906446257112</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>30.26662181958652</v>
+        <v>30.93271016127646</v>
       </c>
     </row>
     <row r="6">
@@ -3687,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.185416489049076</v>
+        <v>6.202180286853011</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3699,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36.96136613873345</v>
+        <v>43.19707306734539</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3712,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.46837585472902</v>
+        <v>27.67299791531998</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8453248100024578</v>
+        <v>0.8484408243978432</v>
       </c>
     </row>
     <row r="9">
@@ -3727,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.01302075740334</v>
+        <v>11.31544936766885</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7540612244537437</v>
+        <v>0.7559126474024185</v>
       </c>
     </row>
     <row r="10">
@@ -3742,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.462872030966403</v>
+        <v>4.18942045477486</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7444298410646878</v>
+        <v>0.7549671180088159</v>
       </c>
     </row>
     <row r="11">
@@ -3757,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01709749563469486</v>
+        <v>0.01920532958168973</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03369180474798038</v>
+        <v>0.03326888813830589</v>
       </c>
     </row>
     <row r="12">
@@ -3772,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04042685902017986</v>
+        <v>0.04032884053486505</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04531283102028705</v>
+        <v>0.04520382895368784</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8921724401214375</v>
+        <v>0.8921554095822878</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3849,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9319.904519587728</v>
+        <v>39734.45887577943</v>
       </c>
       <c r="C2" t="n">
-        <v>9414.044969280534</v>
+        <v>40135.81704624184</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3865,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>114522.03001092</v>
+        <v>87715.93640124946</v>
       </c>
       <c r="C3" t="n">
-        <v>115678.8181928485</v>
+        <v>88601.95596085805</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3881,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8529.397937564163</v>
+        <v>32822.02266675277</v>
       </c>
       <c r="C4" t="n">
-        <v>8615.553472287032</v>
+        <v>33153.55824924523</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3897,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>439.1332486648021</v>
+        <v>437.0348119470581</v>
       </c>
       <c r="C5" t="n">
-        <v>443.5689380452546</v>
+        <v>441.4493049970284</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3913,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41343.44139401482</v>
+        <v>28069.9411596587</v>
       </c>
       <c r="C6" t="n">
-        <v>41761.05191314629</v>
+        <v>28353.47591884717</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3929,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36092.4895897846</v>
+        <v>31192.61470168976</v>
       </c>
       <c r="C7" t="n">
-        <v>36457.06019170162</v>
+        <v>31507.69161786844</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3945,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>63.19884357163973</v>
+        <v>54.2742911425492</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3959,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>69.60104019915393</v>
+        <v>68.0571721141732</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3973,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.414951087456209</v>
+        <v>5.824339666621955</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3987,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21355.97164420072</v>
+        <v>34723.39036558649</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -3999,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2835.341668297121</v>
+        <v>3888.784833672843</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4011,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19387.16466647415</v>
+        <v>22532.88114024387</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4023,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5604.326583178846</v>
+        <v>7875.752175950137</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4035,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4048.872298447354</v>
+        <v>5689.874482038795</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4047,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15029.55944406825</v>
+        <v>21121.01850924826</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4059,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>27518.09999399158</v>
+        <v>38575.43000091004</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4085,7 +4092,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4109,6 +4116,11 @@
           <t>V</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Qnr</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -4119,6 +4131,7 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -4127,12 +4140,9 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="n">
-        <v>250</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10000</v>
-      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4195,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7067010095337621</v>
+        <v>0.7570004179963562</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4333,7 +4343,7 @@
         <v>954.4969526878768</v>
       </c>
       <c r="E3" t="n">
-        <v>417.2977993125638</v>
+        <v>434.1228704474921</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -4367,7 +4377,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>11.6781138188319</v>
+        <v>13.57297754204483</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -4392,31 +4402,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>546.4140569481217</v>
+        <v>547.3098812992665</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>970.1946012764474</v>
+        <v>971.9787817795378</v>
       </c>
       <c r="E5" t="n">
-        <v>428.9759131313957</v>
+        <v>447.6958479895369</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7783501734711379</v>
+        <v>0.7781287202230007</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1205310761183467</v>
+        <v>0.1201711628253928</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03178399109331339</v>
+        <v>0.031975251850067</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06277506379409661</v>
+        <v>0.06315838960734692</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006559695523105253</v>
+        <v>0.006566475494192541</v>
       </c>
     </row>
     <row r="6">
@@ -4426,31 +4436,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>527.3866021628869</v>
+        <v>469.0910193436936</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>948.2492083508614</v>
+        <v>882.3290402720404</v>
       </c>
       <c r="E6" t="n">
-        <v>428.9759131313957</v>
+        <v>447.6958479895369</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7783501734711379</v>
+        <v>0.7781287202230007</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1205310761183467</v>
+        <v>0.1201711628253928</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03178399109331339</v>
+        <v>0.031975251850067</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06277506379409661</v>
+        <v>0.06315838960734692</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006559695523105253</v>
+        <v>0.006566475494192541</v>
       </c>
     </row>
     <row r="7">
@@ -4460,31 +4470,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>286.4151512562771</v>
+        <v>291.1529392389273</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>678.5864728643215</v>
+        <v>684.4224562401761</v>
       </c>
       <c r="E7" t="n">
-        <v>428.9759131313957</v>
+        <v>447.6958479895369</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7783501734711379</v>
+        <v>0.7781287202230007</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1205310761183467</v>
+        <v>0.1201711628253928</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03178399109331339</v>
+        <v>0.031975251850067</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06277506379409661</v>
+        <v>0.06315838960734692</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006559695523105253</v>
+        <v>0.006566475494192541</v>
       </c>
     </row>
     <row r="8">
@@ -4494,31 +4504,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>267.9141224514609</v>
+        <v>222.6548834542836</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>658.5024699901367</v>
+        <v>610.3687021164164</v>
       </c>
       <c r="E8" t="n">
-        <v>428.9759131313957</v>
+        <v>447.6958479895369</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7783501734711379</v>
+        <v>0.7781287202230007</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1205310761183467</v>
+        <v>0.1201711628253928</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03178399109331339</v>
+        <v>0.031975251850067</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06277506379409661</v>
+        <v>0.06315838960734692</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006559695523105253</v>
+        <v>0.006566475494192541</v>
       </c>
     </row>
     <row r="9">
@@ -4528,31 +4538,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>266.9595609579862</v>
+        <v>221.7361520539311</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>657.4684517050368</v>
+        <v>609.3826547653422</v>
       </c>
       <c r="E9" t="n">
-        <v>428.9759131313957</v>
+        <v>447.6958479895369</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7783501734711379</v>
+        <v>0.7781287202230007</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1205310761183467</v>
+        <v>0.1201711628253928</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03178399109331339</v>
+        <v>0.031975251850067</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06277506379409661</v>
+        <v>0.06315838960734692</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006559695523105253</v>
+        <v>0.006566475494192541</v>
       </c>
     </row>
     <row r="10">
@@ -4562,31 +4572,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>176.2403638993516</v>
+        <v>162.3907471804983</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>560.1178764517479</v>
+        <v>546.0506492393275</v>
       </c>
       <c r="E10" t="n">
-        <v>428.9759131313957</v>
+        <v>447.6958479895369</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7783501734711379</v>
+        <v>0.7781287202230007</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1205310761183467</v>
+        <v>0.1201711628253928</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03178399109331339</v>
+        <v>0.031975251850067</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06277506379409661</v>
+        <v>0.06315838960734692</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006559695523105253</v>
+        <v>0.006566475494192541</v>
       </c>
     </row>
     <row r="11">
@@ -4596,31 +4606,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>95.84729235337439</v>
+        <v>95.75892572372162</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>475.1316124781462</v>
+        <v>475.6732004437675</v>
       </c>
       <c r="E11" t="n">
-        <v>428.9759131313957</v>
+        <v>447.6958479895369</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7783501734711379</v>
+        <v>0.7781287202230007</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1205310761183467</v>
+        <v>0.1201711628253928</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03178399109331339</v>
+        <v>0.031975251850067</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06277506379409661</v>
+        <v>0.06315838960734692</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006559695523105253</v>
+        <v>0.006566475494192541</v>
       </c>
     </row>
     <row r="12">
@@ -4639,7 +4649,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>11.06978969648079</v>
+        <v>12.86594815536074</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4663,7 +4673,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6083241223511195</v>
+        <v>0.7070293866841039</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4746,16 +4756,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>320.8444288090802</v>
+        <v>509.5229246389659</v>
       </c>
       <c r="C3" t="n">
-        <v>6.558871640536251</v>
+        <v>7.720844120787708</v>
       </c>
       <c r="D3" t="n">
-        <v>2937.009182983677</v>
+        <v>3426.219632535596</v>
       </c>
       <c r="E3" t="n">
-        <v>67.34033762527987</v>
+        <v>63.42434669259045</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4767,16 +4777,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>286.2852823167187</v>
+        <v>295.808984125073</v>
       </c>
       <c r="C4" t="n">
-        <v>7.047342262715946</v>
+        <v>8.092213122571627</v>
       </c>
       <c r="D4" t="n">
-        <v>2772.012147330433</v>
+        <v>2757.304807370055</v>
       </c>
       <c r="E4" t="n">
-        <v>67.34033762527987</v>
+        <v>63.42434669259045</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4788,16 +4798,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>207.417475239621</v>
+        <v>294.2538421091122</v>
       </c>
       <c r="C5" t="n">
-        <v>7.047342262715946</v>
+        <v>8.092213122571627</v>
       </c>
       <c r="D5" t="n">
-        <v>887.7930785135258</v>
+        <v>1312.995630627877</v>
       </c>
       <c r="E5" t="n">
-        <v>67.34033762527987</v>
+        <v>63.42434669259045</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4809,16 +4819,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>173.0690602853906</v>
+        <v>161.2851957589788</v>
       </c>
       <c r="C6" t="n">
-        <v>7.047342262715946</v>
+        <v>8.092213122571627</v>
       </c>
       <c r="D6" t="n">
-        <v>735.878113856447</v>
+        <v>685.4137987702112</v>
       </c>
       <c r="E6" t="n">
-        <v>67.34033762527987</v>
+        <v>63.42434669259045</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4830,16 +4840,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>171.8734129315606</v>
+        <v>159.944466695833</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8287040324664251</v>
+        <v>0.6173618953134721</v>
       </c>
       <c r="D7" t="n">
-        <v>727.2923310611596</v>
+        <v>675.2322050674645</v>
       </c>
       <c r="E7" t="n">
-        <v>67.34033762527987</v>
+        <v>63.42434669259045</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4851,16 +4861,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>180.7671183896766</v>
+        <v>173.7938000170913</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8182918302213676</v>
+        <v>0.6111156984401902</v>
       </c>
       <c r="D8" t="n">
-        <v>2793.044803662362</v>
+        <v>2791.011750056459</v>
       </c>
       <c r="E8" t="n">
-        <v>22.58593194074947</v>
+        <v>14.96789027935082</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4872,16 +4882,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>171.8734127796632</v>
+        <v>159.9444665694701</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8287040324664251</v>
+        <v>0.6173618953134721</v>
       </c>
       <c r="D9" t="n">
-        <v>2769.73666230948</v>
+        <v>2757.380228539262</v>
       </c>
       <c r="E9" t="n">
-        <v>22.58593194074947</v>
+        <v>14.96789027935082</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4893,16 +4903,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>168.8285941875583</v>
+        <v>156.0743601302759</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8287040324664251</v>
+        <v>0.6173618953134721</v>
       </c>
       <c r="D10" t="n">
-        <v>713.9897036707755</v>
+        <v>658.4772469080472</v>
       </c>
       <c r="E10" t="n">
-        <v>89.92626956602933</v>
+        <v>78.39223697194127</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4914,16 +4924,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>168.8285941875583</v>
+        <v>156.0743601302759</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8287040324664251</v>
+        <v>0.6173618953134721</v>
       </c>
       <c r="D11" t="n">
-        <v>713.9897036707755</v>
+        <v>658.4772469080472</v>
       </c>
       <c r="E11" t="n">
-        <v>99.376478780762</v>
+        <v>93.95476114742091</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4938,13 +4948,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8287040324664251</v>
+        <v>0.6173618953134721</v>
       </c>
       <c r="D12" t="n">
-        <v>251.8594856083504</v>
+        <v>251.6820292675131</v>
       </c>
       <c r="E12" t="n">
-        <v>99.39147978211396</v>
+        <v>93.9618062291124</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4956,16 +4966,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.39437318471101</v>
+        <v>40.65669256342807</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>203.2205074180891</v>
+        <v>170.8872002363926</v>
       </c>
       <c r="E13" t="n">
-        <v>81.67123121445539</v>
+        <v>72.33497190017114</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4977,16 +4987,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>48.39437318471101</v>
+        <v>40.65669256342807</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>203.2205074180891</v>
+        <v>170.8872002363926</v>
       </c>
       <c r="E14" t="n">
-        <v>81.67123121445539</v>
+        <v>72.33497190017114</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4998,16 +5008,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>67.90534584693955</v>
+        <v>70.48406778171881</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0284805169810469</v>
+        <v>0.03185992889566183</v>
       </c>
       <c r="D15" t="n">
-        <v>284.2871579331423</v>
+        <v>295.0941508397707</v>
       </c>
       <c r="E15" t="n">
-        <v>64.42763219449145</v>
+        <v>54.12077869982947</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -5019,16 +5029,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.88113406981734</v>
+        <v>43.63455182795212</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02849184123103183</v>
+        <v>0.03185992889565921</v>
       </c>
       <c r="D16" t="n">
-        <v>183.7742047039665</v>
+        <v>182.7464241679132</v>
       </c>
       <c r="E16" t="n">
-        <v>64.44245127688421</v>
+        <v>54.12077869982151</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5049,7 +5059,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>626.2018594570779</v>
+        <v>574.8677153636058</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -5070,7 +5080,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>78.88322039135059</v>
+        <v>72.41661135630625</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -5082,16 +5092,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>56.32574576761847</v>
+        <v>56.75604488834023</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>235.8358975290186</v>
+        <v>237.6375599474806</v>
       </c>
       <c r="E19" t="n">
-        <v>78.88322039135059</v>
+        <v>72.41661135630625</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -5103,16 +5113,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.70013614848773</v>
+        <v>106.532341376967</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09340551002770615</v>
+        <v>0.0897892915564651</v>
       </c>
       <c r="D20" t="n">
-        <v>2426.976199866253</v>
+        <v>2642.022957186297</v>
       </c>
       <c r="E20" t="n">
-        <v>31.54926237209387</v>
+        <v>23.30226024130911</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5124,16 +5134,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>96.29906147753684</v>
+        <v>95.22125080756079</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08873523452632084</v>
+        <v>0.08529982697864184</v>
       </c>
       <c r="D21" t="n">
-        <v>403.562309042781</v>
+        <v>399.0210281848729</v>
       </c>
       <c r="E21" t="n">
-        <v>31.54926237209387</v>
+        <v>23.30226024130911</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5145,16 +5155,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>65.89585019636768</v>
+        <v>68.50229942361906</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>275.9059247721915</v>
+        <v>286.819127686693</v>
       </c>
       <c r="E22" t="n">
-        <v>626.2018594570779</v>
+        <v>574.8677153636058</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -5175,7 +5185,7 @@
         <v>376.83</v>
       </c>
       <c r="E23" t="n">
-        <v>626.2018594570779</v>
+        <v>574.8677153636058</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -5187,7 +5197,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>39.34989136806576</v>
+        <v>39.40409654146388</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5196,7 +5206,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>626.2018594570779</v>
+        <v>574.8677153636058</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -5208,16 +5218,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>69.0794581620861</v>
+        <v>71.67867564411159</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02997949155899674</v>
+        <v>0.03353676725859141</v>
       </c>
       <c r="D25" t="n">
-        <v>2307.475392946501</v>
+        <v>2512.081414348469</v>
       </c>
       <c r="E25" t="n">
-        <v>32.8900285521328</v>
+        <v>30.81851845851835</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5229,19 +5239,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>315.0326800569001</v>
+        <v>506.6276952143338</v>
       </c>
       <c r="C26" t="n">
-        <v>6.012721382342909</v>
+        <v>7.106949959412932</v>
       </c>
       <c r="D26" t="n">
-        <v>2937.009182983677</v>
+        <v>3426.219632535596</v>
       </c>
       <c r="E26" t="n">
-        <v>59.08529927370592</v>
+        <v>57.36708162082488</v>
       </c>
       <c r="F26" t="n">
-        <v>6.158156430438162</v>
+        <v>6.812430748716439</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5254,22 +5264,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>153.9330285838017</v>
+        <v>189.497221052605</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5285287699917796</v>
+        <v>0.4623934893418848</v>
       </c>
       <c r="D27" t="n">
-        <v>2549.570234334471</v>
+        <v>2835.323942751098</v>
       </c>
       <c r="E27" t="n">
-        <v>59.08529927370592</v>
+        <v>57.36708162082488</v>
       </c>
       <c r="F27" t="n">
-        <v>6.331355158643309</v>
+        <v>7.052287274337696</v>
       </c>
       <c r="G27" t="n">
-        <v>90.43473983972781</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -5279,19 +5289,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>176.5444807545595</v>
+        <v>171.1823238270213</v>
       </c>
       <c r="C28" t="n">
-        <v>0.673704829680284</v>
+        <v>0.526152292540444</v>
       </c>
       <c r="D28" t="n">
-        <v>2793.044803662362</v>
+        <v>2791.011750056459</v>
       </c>
       <c r="E28" t="n">
-        <v>22.58593194074947</v>
+        <v>14.96789027935082</v>
       </c>
       <c r="F28" t="n">
-        <v>6.792092093336244</v>
+        <v>6.896834378035819</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5304,22 +5314,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>153.9330285838017</v>
+        <v>185.242940630064</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5285287699917796</v>
+        <v>0.4623934893418848</v>
       </c>
       <c r="D29" t="n">
-        <v>2616.902389983054</v>
+        <v>2826.154656845988</v>
       </c>
       <c r="E29" t="n">
-        <v>81.67123121445539</v>
+        <v>72.3349719001757</v>
       </c>
       <c r="F29" t="n">
-        <v>6.489011050219809</v>
+        <v>7.032376329421251</v>
       </c>
       <c r="G29" t="n">
-        <v>93.6388924743616</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
@@ -5329,22 +5339,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>127.6972769088474</v>
+        <v>106.5323413769609</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2521769012434729</v>
+        <v>0.1274581693227134</v>
       </c>
       <c r="D30" t="n">
-        <v>2512.627221104294</v>
+        <v>2642.022957186289</v>
       </c>
       <c r="E30" t="n">
-        <v>81.67123121445539</v>
+        <v>72.3349719001757</v>
       </c>
       <c r="F30" t="n">
-        <v>6.539982689689914</v>
+        <v>7.162287973167166</v>
       </c>
       <c r="G30" t="n">
-        <v>90.63160348638843</v>
+        <v>98.04674963346493</v>
       </c>
     </row>
     <row r="31">
@@ -5354,22 +5364,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7292046958951</v>
+        <v>71.67867564411677</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1519084124403979</v>
+        <v>0.0335367672585934</v>
       </c>
       <c r="D31" t="n">
-        <v>2447.321364902797</v>
+        <v>2512.081414348454</v>
       </c>
       <c r="E31" t="n">
-        <v>81.67123121445539</v>
+        <v>49.03271165886459</v>
       </c>
       <c r="F31" t="n">
-        <v>6.578662509278066</v>
+        <v>7.390302091628354</v>
       </c>
       <c r="G31" t="n">
-        <v>88.92747540684438</v>
+        <v>94.98120335291375</v>
       </c>
     </row>
     <row r="32">
@@ -5379,22 +5389,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>111.7292046958951</v>
+        <v>71.67867564411677</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1519084124403979</v>
+        <v>0.0335367672585934</v>
       </c>
       <c r="D32" t="n">
-        <v>2447.321364902797</v>
+        <v>2512.081414348454</v>
       </c>
       <c r="E32" t="n">
-        <v>81.67123121445539</v>
+        <v>18.21419320034963</v>
       </c>
       <c r="F32" t="n">
-        <v>6.578662509278066</v>
+        <v>7.390302091628354</v>
       </c>
       <c r="G32" t="n">
-        <v>88.92747540684438</v>
+        <v>94.98120335291375</v>
       </c>
     </row>
     <row r="33">
@@ -5404,22 +5414,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>48.31535361299922</v>
+        <v>30.19632194625746</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01135566929256788</v>
+        <v>0.004295067606146345</v>
       </c>
       <c r="D33" t="n">
-        <v>2156.223979732069</v>
+        <v>2367.700132141356</v>
       </c>
       <c r="E33" t="n">
-        <v>81.67123121445539</v>
+        <v>18.21419320034963</v>
       </c>
       <c r="F33" t="n">
-        <v>6.760142838836189</v>
+        <v>7.827536332312141</v>
       </c>
       <c r="G33" t="n">
-        <v>81.89092003102833</v>
+        <v>92.25308406097017</v>
       </c>
     </row>
     <row r="34">
@@ -5429,16 +5439,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>48.31535361429951</v>
+        <v>30.19632194625746</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01135566929256788</v>
+        <v>0.004295067606146345</v>
       </c>
       <c r="D34" t="n">
-        <v>202.2968556132104</v>
+        <v>126.5546556098683</v>
       </c>
       <c r="E34" t="n">
-        <v>81.67123121445539</v>
+        <v>18.21419320034963</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5450,16 +5460,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>48.39437318471101</v>
+        <v>32.22213685717463</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>203.2205074180891</v>
+        <v>135.649271941159</v>
       </c>
       <c r="E35" t="n">
-        <v>81.67123121445539</v>
+        <v>18.21419320034963</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5555,16 +5565,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>297.1541467142114</v>
+        <v>505.8462701383095</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3017.567516238169</v>
+        <v>3481.143906256937</v>
       </c>
       <c r="E40" t="n">
-        <v>7.23275465084452</v>
+        <v>10.16417982322362</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5597,16 +5607,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>312.1541467142114</v>
+        <v>520.8462701383095</v>
       </c>
       <c r="C42" t="n">
-        <v>5.622661598799795</v>
+        <v>6.354492508825095</v>
       </c>
       <c r="D42" t="n">
-        <v>2941.581095331945</v>
+        <v>3468.728300738045</v>
       </c>
       <c r="E42" t="n">
-        <v>8.814461914026563</v>
+        <v>11.8020503217761</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
